--- a/demo.xlsx
+++ b/demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seeker\Desktop\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/957077feb13b3450/WorkStation/Image_Metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AEF74D-990E-48AD-B7E7-905A4D940934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{51AEF74D-990E-48AD-B7E7-905A4D940934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCA44200-3726-4219-9A07-ADEE5CEBEF26}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{DDDBFFF9-4ACD-4514-B65B-16D5CA899CE1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ImgName\Metrics</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,14 @@
   </si>
   <si>
     <t>LPIPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paq2Piq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AFCCDF-E3C9-4373-BC96-AF61759CEA94}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -468,7 +476,7 @@
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,8 +519,14 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -555,8 +569,14 @@
       <c r="N2" s="1">
         <v>0</v>
       </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -599,8 +619,14 @@
       <c r="N3" s="1">
         <v>0</v>
       </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -643,8 +669,14 @@
       <c r="N4" s="1">
         <v>0</v>
       </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -687,8 +719,14 @@
       <c r="N5" s="1">
         <v>0</v>
       </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -731,8 +769,14 @@
       <c r="N6" s="1">
         <v>0</v>
       </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -773,6 +817,12 @@
         <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
         <v>0</v>
       </c>
     </row>
